--- a/SAP/CCS_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CCS_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,22 +664,26 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3820012807</v>
+        <v>3823001114</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72001800</t>
+          <t>70014930</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3801</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ZNRL</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>660</v>
+        <v>1718.64</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -689,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20210806</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -710,14 +714,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3820012874</v>
+        <v>3823001114</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70001852</t>
+          <t>70007848</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -725,11 +729,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZCAC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>250</v>
+        <v>1718.64</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -739,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220114</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -760,14 +764,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3820012874</v>
+        <v>3823001114</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>72000644</t>
+          <t>70007847</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -775,11 +779,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZCQE</t>
+          <t>ZCAC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3000</v>
+        <v>168</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -789,7 +793,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20210806</t>
+          <t>20220114</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -810,14 +814,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3820012874</v>
+        <v>3823001114</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70001852</t>
+          <t>70007846</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -825,11 +829,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZCEA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -839,7 +843,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220114</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -860,14 +864,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3820012874</v>
+        <v>3820016475</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72000644</t>
+          <t>70000276</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -875,11 +879,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ZCQE</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3000</v>
+        <v>54</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -889,7 +893,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20210806</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -910,14 +914,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3820012875</v>
+        <v>3820016475</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70008927</t>
+          <t>70000391</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -925,11 +929,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZNRL</t>
+          <t>ZCEQ</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -939,7 +943,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -960,14 +964,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3820012875</v>
+        <v>3820016475</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70008926</t>
+          <t>70002083</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -975,11 +979,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZCJT</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -989,7 +993,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1010,14 +1014,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3820012875</v>
+        <v>3820016475</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70015198</t>
+          <t>70000386</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1025,11 +1029,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ZCEQ</t>
+          <t>ZCQE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1039,7 +1043,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20210806</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1060,14 +1064,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3820012875</v>
+        <v>3820016475</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70008927</t>
+          <t>70000031</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1075,11 +1079,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZNRL</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1089,7 +1093,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1110,14 +1114,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3820012875</v>
+        <v>3820016475</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70008926</t>
+          <t>70001656</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1125,11 +1129,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZCJT</t>
+          <t>ZCQE</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1139,7 +1143,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1160,14 +1164,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3820012875</v>
+        <v>3820016475</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70015198</t>
+          <t>70000022</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1175,11 +1179,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ZCEQ</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1189,7 +1193,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20210806</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1210,14 +1214,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3820012972</v>
+        <v>3820016475</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>72001131</t>
+          <t>70000996</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1225,11 +1229,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ZCEM</t>
+          <t>ZCQE</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>1440</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1239,7 +1243,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1260,14 +1264,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3820012972</v>
+        <v>3820016454</v>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>72000378</t>
+          <t>70004729</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1275,11 +1279,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZCEM</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>624</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1289,7 +1293,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1310,14 +1314,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3820012828</v>
+        <v>3820016454</v>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70003794</t>
+          <t>70024563</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1325,11 +1329,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZCAC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
+        <v>624</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1339,7 +1343,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1360,14 +1364,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3820012828</v>
+        <v>3820016454</v>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70005595</t>
+          <t>70024313</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1375,11 +1379,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ZCAC</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1389,7 +1393,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1410,14 +1414,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3820012828</v>
+        <v>3820016454</v>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>71000398</t>
+          <t>70023573</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1425,11 +1429,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ZCQE</t>
+          <t>ZCEM</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1120</v>
+        <v>600</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1439,7 +1443,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1460,14 +1464,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3820012828</v>
+        <v>3820016479</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70003794</t>
+          <t>70003710</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1479,7 +1483,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1489,7 +1493,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1510,26 +1514,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3820012828</v>
+        <v>3820016479</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70005595</t>
+          <t>71005271</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>3801</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1560,26 +1560,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3820012828</v>
+        <v>3820016479</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>71000398</t>
+          <t>71005270</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>3801</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ZCQE</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>1120</v>
+        <v>131</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1589,7 +1585,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1610,14 +1606,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3820012980</v>
+        <v>3820016479</v>
       </c>
       <c r="C22" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70011423</t>
+          <t>70003710</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1625,11 +1621,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ZCMQ</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1639,7 +1635,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1660,26 +1656,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3820012980</v>
+        <v>3820016479</v>
       </c>
       <c r="C23" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>72000302</t>
+          <t>71005269</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>3801</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ZCMM</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1689,7 +1681,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1710,26 +1702,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3820012980</v>
+        <v>3820016479</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>72000552</t>
+          <t>71005268</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>3801</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>ZCEM</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1739,7 +1727,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1760,14 +1748,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3820012980</v>
+        <v>3820016479</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>72000400</t>
+          <t>70003710</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1775,11 +1763,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ZCEM</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1789,7 +1777,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1810,26 +1798,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3820012980</v>
+        <v>3820016479</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>72000924</t>
+          <t>71005267</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>3801</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>ZCEM</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>320</v>
+        <v>152</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1839,7 +1823,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1860,14 +1844,14 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3820012980</v>
+        <v>3823001109</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>72000383</t>
+          <t>70004512</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1875,11 +1859,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ZCEM</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1889,7 +1873,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1910,14 +1894,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3820012980</v>
+        <v>3823001109</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>72000376</t>
+          <t>70013969</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1925,11 +1909,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ZCEM</t>
+          <t>ZCQE</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>320</v>
+        <v>4200</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1939,7 +1923,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1960,14 +1944,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3820012980</v>
+        <v>3823001115</v>
       </c>
       <c r="C29" t="n">
         <v>10</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70015293</t>
+          <t>70009317</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1975,11 +1959,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ZCMM</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1989,7 +1973,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211126</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2010,14 +1994,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3820012980</v>
+        <v>3823001115</v>
       </c>
       <c r="C30" t="n">
         <v>10</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>72000978</t>
+          <t>70000683</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2025,11 +2009,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ZCMM</t>
+          <t>ZCEM</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2039,7 +2023,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220114</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2056,3100 +2040,314 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3820012980</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>72001570</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>ZCEM</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>300</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>20210723</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A31" s="4" t="n"/>
+      <c r="M31" s="4" t="n"/>
+      <c r="N31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>70023945</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>ZNRL</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1310.4</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="n"/>
+      <c r="M32" s="4" t="n"/>
+      <c r="N32" s="4" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C33" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>70023031</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1260</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20210723</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N33" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A33" s="4" t="n"/>
+      <c r="M33" s="4" t="n"/>
+      <c r="N33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C34" t="n">
-        <v>20</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>70023944</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>2520</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>20210723</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N34" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A34" s="4" t="n"/>
+      <c r="M34" s="4" t="n"/>
+      <c r="N34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C35" t="n">
-        <v>20</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>70023943</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>20210806</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N35" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A35" s="4" t="n"/>
+      <c r="M35" s="4" t="n"/>
+      <c r="N35" s="4" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C36" t="n">
-        <v>20</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>70023942</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>ZCEA</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>20210910</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N36" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A36" s="4" t="n"/>
+      <c r="M36" s="4" t="n"/>
+      <c r="N36" s="4" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C37" t="n">
-        <v>20</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>70023945</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>ZNRL</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1310.4</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N37" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C38" t="n">
-        <v>20</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>70023031</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1260</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>20210723</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C39" t="n">
-        <v>20</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>70023944</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2520</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>20210723</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C40" t="n">
-        <v>20</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>70023943</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>20210806</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N40" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C41" t="n">
-        <v>20</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>70023942</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>ZCEA</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20210910</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C42" t="n">
-        <v>10</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>70023945</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>ZNRL</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>655.2</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N42" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C43" t="n">
-        <v>10</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>70023031</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>630</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N43" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>70023980</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>2520</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N44" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>70023979</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N45" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C46" t="n">
-        <v>10</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>70023977</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>ZCEA</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>20210910</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N46" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>70023945</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>ZNRL</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>655.2</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N47" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>70023031</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>630</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N48" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>70023980</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>2520</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N49" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>70023979</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ZCAC</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N50" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3820012873</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>70023977</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ZCEA</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>20210910</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N51" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C52" t="n">
-        <v>270</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>72000616</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ZCQE</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>28</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N52" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C53" t="n">
-        <v>260</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>71000914</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>14</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N53" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C54" t="n">
-        <v>260</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>71000073</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>14</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N54" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C55" t="n">
-        <v>260</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>71000423</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N55" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C56" t="n">
-        <v>260</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>71001242</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N56" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C57" t="n">
-        <v>260</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>71000202</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F57" t="n">
-        <v/>
-      </c>
-      <c r="G57" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N57" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C58" t="n">
-        <v>260</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>71000914</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>14</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N58" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C59" t="n">
-        <v>260</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>71000073</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>14</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N59" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C60" t="n">
-        <v>260</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>71000423</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N60" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C61" t="n">
-        <v>260</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>71001242</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N61" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C62" t="n">
-        <v>260</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>71000202</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F62" t="n">
-        <v/>
-      </c>
-      <c r="G62" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N62" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C63" t="n">
-        <v>250</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>71000808</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>12</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N63" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C64" t="n">
-        <v>250</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>71000098</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>12</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N64" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C65" t="n">
-        <v>250</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>71000544</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N65" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C66" t="n">
-        <v>250</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>71001266</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N66" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C67" t="n">
-        <v>250</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>71000161</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>ZCEJ</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N67" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C68" t="n">
-        <v>250</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>71000808</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>12</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N68" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C69" t="n">
-        <v>250</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>71000098</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>12</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N69" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C70" t="n">
-        <v>250</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>71000544</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N70" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C71" t="n">
-        <v>250</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>71001266</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C72" t="n">
-        <v>250</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>71000161</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>ZCEJ</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N72" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C73" t="n">
-        <v>240</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>71000916</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>13</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N73" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C74" t="n">
-        <v>240</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>71000075</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>13</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N74" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C75" t="n">
-        <v>240</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>71000424</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N75" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C76" t="n">
-        <v>240</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>71001244</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N76" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C77" t="n">
-        <v>240</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>71000158</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>ZCEJ</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N77" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C78" t="n">
-        <v>240</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>71000916</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>13</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N78" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C79" t="n">
-        <v>240</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>71000075</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>13</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N79" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C80" t="n">
-        <v>240</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>71000424</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N80" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C81" t="n">
-        <v>240</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>71001244</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N81" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C82" t="n">
-        <v>240</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>71000158</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>ZCEJ</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N82" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C83" t="n">
-        <v>230</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>71000917</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>30</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N83" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C84" t="n">
-        <v>230</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>71000081</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>30</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N84" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C85" t="n">
-        <v>230</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>71000436</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N85" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C86" t="n">
-        <v>230</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>71001245</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N86" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A86" s="4" t="n"/>
+      <c r="M86" s="4" t="n"/>
+      <c r="N86" s="4" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C87" t="n">
-        <v>230</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>71000156</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>ZCEJ</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N87" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A87" s="4" t="n"/>
+      <c r="M87" s="4" t="n"/>
+      <c r="N87" s="4" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C88" t="n">
-        <v>230</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>71000917</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>30</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N88" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A88" s="4" t="n"/>
+      <c r="M88" s="4" t="n"/>
+      <c r="N88" s="4" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C89" t="n">
-        <v>230</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>71000081</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>30</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N89" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A89" s="4" t="n"/>
+      <c r="M89" s="4" t="n"/>
+      <c r="N89" s="4" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C90" t="n">
-        <v>230</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>71000436</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N90" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A90" s="4" t="n"/>
+      <c r="M90" s="4" t="n"/>
+      <c r="N90" s="4" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C91" t="n">
-        <v>230</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>71001245</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>ZCJT</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N91" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A91" s="4" t="n"/>
+      <c r="M91" s="4" t="n"/>
+      <c r="N91" s="4" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3823000655</v>
-      </c>
-      <c r="C92" t="n">
-        <v>230</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>71000156</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>ZCEJ</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N92" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A92" s="4" t="n"/>
+      <c r="M92" s="4" t="n"/>
+      <c r="N92" s="4" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="n"/>

--- a/SAP/CCS_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CCS_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,14 +664,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3823001114</v>
+        <v>3820016515</v>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70014930</t>
+          <t>71000843</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -679,11 +679,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ZNRL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1718.64</v>
+        <v>23</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,14 +714,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3823001114</v>
+        <v>3820016515</v>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70007848</t>
+          <t>71000949</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -729,11 +729,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ZCAC</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1718.64</v>
+        <v>23</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20220114</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -764,14 +764,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3823001114</v>
+        <v>3820016515</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70007847</t>
+          <t>71000481</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -779,11 +779,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZCAC</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>168</v>
+        <v>500</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20220114</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -814,14 +814,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3823001114</v>
+        <v>3823001120</v>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70007846</t>
+          <t>70011415</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -829,11 +829,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ZCEA</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>168</v>
+        <v>400</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20220114</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -864,14 +864,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3820016475</v>
+        <v>3823001120</v>
       </c>
       <c r="C7" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70000276</t>
+          <t>72000281</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -879,11 +879,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZCMM</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -914,14 +914,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3820016475</v>
+        <v>3823001120</v>
       </c>
       <c r="C8" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70000391</t>
+          <t>72000470</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -929,11 +929,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZCEQ</t>
+          <t>ZCEM</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -964,26 +964,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3820016475</v>
+        <v>3823001120</v>
       </c>
       <c r="C9" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70002083</t>
+          <t>70025396</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>3801</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ZNPL</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>54</v>
+        <v>384</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -993,7 +989,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1014,26 +1010,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3820016475</v>
+        <v>3823001120</v>
       </c>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70000386</t>
+          <t>70026680</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3801</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ZCQE</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>480</v>
+        <v>768</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1043,7 +1035,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1064,26 +1056,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3820016475</v>
+        <v>3823001120</v>
       </c>
       <c r="C11" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70000031</t>
+          <t>70026679</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>3801</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ZNPL</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>768</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1093,7 +1081,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1114,14 +1102,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3820016475</v>
+        <v>3823001123</v>
       </c>
       <c r="C12" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70001656</t>
+          <t>71000923</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1129,11 +1117,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZCQE</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1143,7 +1131,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1164,14 +1152,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3820016475</v>
+        <v>3823001123</v>
       </c>
       <c r="C13" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70000022</t>
+          <t>71000094</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1179,11 +1167,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1193,7 +1181,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1214,14 +1202,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3820016475</v>
+        <v>3823001123</v>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70000996</t>
+          <t>71000430</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1229,11 +1217,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ZCQE</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1440</v>
+        <v>1500</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1243,7 +1231,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1264,14 +1252,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3820016454</v>
+        <v>3823001123</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70004729</t>
+          <t>71000914</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1279,11 +1267,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>624</v>
+        <v>27</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1293,7 +1281,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1314,14 +1302,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3820016454</v>
+        <v>3823001123</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70024563</t>
+          <t>71000073</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1329,11 +1317,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZCAC</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>624</v>
+        <v>27</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1343,7 +1331,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1364,14 +1352,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3820016454</v>
+        <v>3823001123</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70024313</t>
+          <t>71000423</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1379,11 +1367,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ZCMQ</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1393,7 +1381,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1414,14 +1402,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3820016454</v>
+        <v>3823001123</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70023573</t>
+          <t>71000808</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1429,11 +1417,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ZCEM</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1443,7 +1431,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1464,14 +1452,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3820016479</v>
+        <v>3823001123</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70003710</t>
+          <t>71000098</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1479,11 +1467,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1493,7 +1481,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1514,22 +1502,26 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3820016479</v>
+        <v>3823001123</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>71005271</t>
+          <t>71000544</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>3801</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ZRPL</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>131</v>
+        <v>2100</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1539,7 +1531,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20211231</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1560,22 +1552,26 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3820016479</v>
+        <v>3823001123</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>71005270</t>
+          <t>71000908</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>3801</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ZRSE</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1585,7 +1581,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20211231</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1606,14 +1602,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3820016479</v>
+        <v>3823001123</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70003710</t>
+          <t>71000067</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1621,11 +1617,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1635,7 +1631,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1656,22 +1652,26 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3820016479</v>
+        <v>3823001123</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>71005269</t>
+          <t>71000460</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>3801</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ZRPL</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>172</v>
+        <v>500</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20211231</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1698,346 +1698,39 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3820016479</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>71005268</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>172</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>20211231</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A24" s="4" t="n"/>
+      <c r="M24" s="4" t="n"/>
+      <c r="N24" s="4" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3820016479</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>70003710</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>76</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>20220107</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A25" s="4" t="n"/>
+      <c r="M25" s="4" t="n"/>
+      <c r="N25" s="4" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3820016479</v>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>71005267</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>152</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>20220107</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N26" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A26" s="4" t="n"/>
+      <c r="M26" s="4" t="n"/>
+      <c r="N26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3823001109</v>
-      </c>
-      <c r="C27" t="n">
-        <v>110</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>70004512</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>ZNPL</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2100</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20211126</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N27" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A27" s="4" t="n"/>
+      <c r="M27" s="4" t="n"/>
+      <c r="N27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3823001109</v>
-      </c>
-      <c r="C28" t="n">
-        <v>110</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>70013969</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ZCQE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>4200</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>20211126</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N28" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A28" s="4" t="n"/>
+      <c r="M28" s="4" t="n"/>
+      <c r="N28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3823001115</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>70009317</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>ZCMQ</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>384</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>20211126</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N29" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A29" s="4" t="n"/>
+      <c r="M29" s="4" t="n"/>
+      <c r="N29" s="4" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3823001115</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>70000683</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>ZCEM</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>384</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>20220114</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="n"/>
+      <c r="M30" s="4" t="n"/>
+      <c r="N30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>

--- a/SAP/CCS_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CCS_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,14 +664,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3820016515</v>
+        <v>3823001401</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71000843</t>
+          <t>70005873</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -679,11 +679,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>1600</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,14 +714,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3820016515</v>
+        <v>3823001401</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71000949</t>
+          <t>70013970</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -729,11 +729,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZCQE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>3200</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -764,14 +764,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3820016515</v>
+        <v>3820017820</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>71000481</t>
+          <t>70003132</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -779,11 +779,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>500</v>
+        <v>64</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -814,26 +814,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3823001120</v>
+        <v>3820017820</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70011415</t>
+          <t>70026583</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3801</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ZCMQ</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -843,7 +839,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -864,14 +860,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3823001120</v>
+        <v>3820017820</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72000281</t>
+          <t>70011454</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -879,11 +875,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ZCMM</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -893,7 +889,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -914,14 +910,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3823001120</v>
+        <v>3820017820</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72000470</t>
+          <t>72000192</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -929,11 +925,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZCEM</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,7 +939,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -964,22 +960,26 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3823001120</v>
+        <v>3820017820</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70025396</t>
+          <t>70012107</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>3801</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ZCMQ</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>384</v>
+        <v>1890</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1010,22 +1010,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3823001120</v>
+        <v>3820017820</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70026680</t>
+          <t>72000211</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3801</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ZCMQ</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>768</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1035,7 +1039,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1056,14 +1060,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3823001120</v>
+        <v>3820017820</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70026679</t>
+          <t>72002008</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1071,7 +1075,7 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>768</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1081,7 +1085,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1102,14 +1106,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C12" t="n">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>71000923</t>
+          <t>72000768</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1117,11 +1121,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZCEQ</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1131,7 +1135,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1152,14 +1156,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C13" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>71000094</t>
+          <t>70003132</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1167,11 +1171,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1181,7 +1185,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1202,26 +1206,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C14" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>71000430</t>
+          <t>70026583</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>3801</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>1500</v>
+        <v>201</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1252,14 +1252,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C15" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>71000914</t>
+          <t>70011454</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1267,11 +1267,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1302,14 +1302,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C16" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>71000073</t>
+          <t>72000128</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1317,11 +1317,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>27</v>
+        <v>1204</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1352,14 +1352,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C17" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>71000423</t>
+          <t>70012107</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1367,11 +1367,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2000</v>
+        <v>1166</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1402,14 +1402,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C18" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>71000808</t>
+          <t>72000191</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1417,11 +1417,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>25</v>
+        <v>1204</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1452,26 +1452,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C19" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>71000098</t>
+          <t>72002007</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>3801</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>1204</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1481,7 +1477,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1502,14 +1498,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C20" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>71000544</t>
+          <t>72000764</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1517,11 +1513,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZCEQ</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2100</v>
+        <v>1204</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1531,7 +1527,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220226</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1552,14 +1548,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C21" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>71000908</t>
+          <t>70003132</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1567,11 +1563,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1581,7 +1577,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1602,26 +1598,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C22" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>71000067</t>
+          <t>70026583</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>3801</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1631,7 +1623,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1652,14 +1644,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3823001123</v>
+        <v>3820017820</v>
       </c>
       <c r="C23" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>71000460</t>
+          <t>70011454</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1667,11 +1659,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZCMQ</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>500</v>
+        <v>268</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1681,7 +1673,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1698,29 +1690,250 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="M24" s="4" t="n"/>
-      <c r="N24" s="4" t="n"/>
+      <c r="A24" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3820017820</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>72001086</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ZCMQ</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2412</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20220212</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="4" t="n"/>
+      <c r="A25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3820017820</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>70012107</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ZCMQ</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2412</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20220129</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
+      <c r="A26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3820017820</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>72000212</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ZCMQ</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2412</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20220129</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="M27" s="4" t="n"/>
-      <c r="N27" s="4" t="n"/>
+      <c r="A27" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3820017820</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>72002006</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>2412</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20220226</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="M28" s="4" t="n"/>
-      <c r="N28" s="4" t="n"/>
+      <c r="A28" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3820017820</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>72000763</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ZCEQ</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2412</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20220226</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n"/>
